--- a/vgl_ontoPortal+self.xlsx
+++ b/vgl_ontoPortal+self.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$L$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="533">
   <si>
     <t>diameter (quality)</t>
   </si>
@@ -583,14 +586,1066 @@
   </si>
   <si>
     <t>[[{'AFO': {'http://qudt.org/schema/qudt#Dimension': {'dimension'}}}, {'BAO': {'http://purl.obolibrary.org/obo/PATO_0000117': {'altLabel': 'dimension'}}}], [{'AFO': {'http://qudt.org/schema/qudt#Dimension': {'dimension'}}}, {'BAO': {'http://purl.obolibrary.org/obo/PATO_0000117': {'altLabel': 'dimension'}}}], [{'AFO': {'http://qudt.org/schema/qudt#Dimension': {'Dimension'}}}, {'BAO': {'http://purl.obolibrary.org/obo/PATO_0000117': {'altLabel': 'Dimension'}}}]]</t>
+  </si>
+  <si>
+    <t>AFO_IRI</t>
+  </si>
+  <si>
+    <t>AFO_DESC</t>
+  </si>
+  <si>
+    <t>BAO_IRI</t>
+  </si>
+  <si>
+    <t>BAO_DESC</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_9606</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_9606'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000918</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000918'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001323</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001323'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001334</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001334'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000122</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000122'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000117</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000117'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001300</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001300'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000051</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000051'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000141</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000141'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000052</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000052'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000921</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000921'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000014</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0000014'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001708</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001708'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001995</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001995'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001710</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001710'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001709</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001709'}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#Shape</t>
+  </si>
+  <si>
+    <t>{'label': 'Shape', 'prefLabel': 'Shape', 'altLabel': None, 'name': 'Shape'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'Shape'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000951</t>
+  </si>
+  <si>
+    <t>{'label': 'duration', 'prefLabel': 'duration', 'altLabel': 'time', 'name': 'AFR_0000951'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000165</t>
+  </si>
+  <si>
+    <t>{'label': 'time'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+  </si>
+  <si>
+    <t>{'label': 'material entity', 'prefLabel': 'material entity', 'altLabel': None, 'name': 'BFO_0000040'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
+  </si>
+  <si>
+    <t>{'label': 'material entity'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000900</t>
+  </si>
+  <si>
+    <t>{'label': 'log', 'prefLabel': 'log', 'altLabel': 'event log', 'name': 'AFR_0000900'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002172</t>
+  </si>
+  <si>
+    <t>{'label': 'log'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+  </si>
+  <si>
+    <t>{'label': 'function', 'prefLabel': 'function', 'altLabel': None, 'name': 'BFO_0000034'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003117</t>
+  </si>
+  <si>
+    <t>{'label': 'function'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+  </si>
+  <si>
+    <t>{'label': 'quality', 'prefLabel': 'quality', 'altLabel': None, 'name': 'BFO_0000019'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002928</t>
+  </si>
+  <si>
+    <t>{'label': 'quality'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+  </si>
+  <si>
+    <t>{'label': 'role', 'prefLabel': 'role', 'altLabel': None, 'name': 'BFO_0000023'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002929</t>
+  </si>
+  <si>
+    <t>{'label': 'role'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000129</t>
+  </si>
+  <si>
+    <t>{'label': 'optical microscope', 'prefLabel': 'optical microscope', 'altLabel': 'light microscope', 'name': 'AFE_0000129'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0150009</t>
+  </si>
+  <si>
+    <t>{'label': 'optical microscope'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000825</t>
+  </si>
+  <si>
+    <t>{'label': 'microscope', 'prefLabel': 'microscope', 'altLabel': None, 'name': 'AFE_0000825'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0150008</t>
+  </si>
+  <si>
+    <t>{'label': 'microscope'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001404</t>
+  </si>
+  <si>
+    <t>{'label': 'optical microscopy', 'prefLabel': 'optical microscopy', 'altLabel': 'OM', 'name': 'AFP_0001404'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000451</t>
+  </si>
+  <si>
+    <t>{'label': 'optical microscopy'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000224</t>
+  </si>
+  <si>
+    <t>{'label': 'high-performance liquid chromatograph', 'prefLabel': 'high-performance liquid chromatograph', 'altLabel': 'HPLC system', 'name': 'AFE_0000224'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002733</t>
+  </si>
+  <si>
+    <t>{'label': 'HPLC system'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000718</t>
+  </si>
+  <si>
+    <t>{'label': 'tube', 'prefLabel': 'tube', 'altLabel': 'tubing', 'name': 'AFE_0000718'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0010014</t>
+  </si>
+  <si>
+    <t>{'label': 'tube'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0002254</t>
+  </si>
+  <si>
+    <t>{'label': 'inhibition device', 'prefLabel': 'inhibition device', 'altLabel': 'inhibitor', 'name': 'AFE_0002254'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35222</t>
+  </si>
+  <si>
+    <t>{'label': 'inhibitor'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000044</t>
+  </si>
+  <si>
+    <t>{'label': 'microscopy', 'prefLabel': 'microscopy', 'altLabel': None, 'name': 'AFP_0000044'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002526</t>
+  </si>
+  <si>
+    <t>{'label': 'microscopy'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000937</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': 'time', 'altLabel': 'timestamp', 'name': 'AFR_0000937'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000441</t>
+  </si>
+  <si>
+    <t>{'label': 'Karl-Fischer titration', 'prefLabel': 'Karl-Fischer titration', 'altLabel': 'Karl Fischer titration', 'name': 'AFP_0000441'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002414</t>
+  </si>
+  <si>
+    <t>{'label': 'Karl Fischer titration'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0002248</t>
+  </si>
+  <si>
+    <t>{'label': 'probe', 'prefLabel': 'probe', 'altLabel': None, 'name': 'AFE_0002248'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_50406</t>
+  </si>
+  <si>
+    <t>{'label': 'probe'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003552</t>
+  </si>
+  <si>
+    <t>{'label': 'signaling', 'prefLabel': 'signaling', 'altLabel': 'producing signal', 'name': 'AFP_0003552'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0023052</t>
+  </si>
+  <si>
+    <t>{'label': 'signaling'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular entity', 'prefLabel': 'molecular entity', 'altLabel': None, 'name': 'CHEBI_23367'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003043</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular entity'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000085</t>
+  </si>
+  <si>
+    <t>{'label': 'dye', 'prefLabel': 'dye', 'altLabel': None, 'name': 'AFM_0000085'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_37958</t>
+  </si>
+  <si>
+    <t>{'label': 'dye'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000226</t>
+  </si>
+  <si>
+    <t>{'label': 'nucleus', 'prefLabel': 'nucleus', 'altLabel': None, 'name': 'AFM_0000226'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0005634</t>
+  </si>
+  <si>
+    <t>{'label': 'nucleus'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000442</t>
+  </si>
+  <si>
+    <t>{'label': 'suspension', 'prefLabel': 'suspension', 'altLabel': None, 'name': 'AFM_0000442'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002104</t>
+  </si>
+  <si>
+    <t>{'label': 'suspension'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001033</t>
+  </si>
+  <si>
+    <t>{'label': 'gel', 'prefLabel': 'gel', 'altLabel': None, 'name': 'AFM_0001033'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0010018</t>
+  </si>
+  <si>
+    <t>{'label': 'gel'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001085</t>
+  </si>
+  <si>
+    <t>{'label': 'organization', 'prefLabel': 'organization', 'altLabel': None, 'name': 'AFM_0001085'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002934</t>
+  </si>
+  <si>
+    <t>{'label': 'organization'}</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/Organization</t>
+  </si>
+  <si>
+    <t>{'Organization'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Organization'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000269</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent role', 'prefLabel': 'solvent role', 'altLabel': 'solvent', 'name': 'AFRL_0000269'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_46787</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000634</t>
+  </si>
+  <si>
+    <t>{'label': 'volumetric titration', 'prefLabel': 'volumetric titration', 'altLabel': None, 'name': 'AFP_0000634'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002454</t>
+  </si>
+  <si>
+    <t>{'label': 'volumetric titration'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001427</t>
+  </si>
+  <si>
+    <t>{'label': 'mass spectrometry', 'prefLabel': 'mass spectrometry', 'altLabel': 'MS', 'name': 'AFP_0001427'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000055</t>
+  </si>
+  <si>
+    <t>{'label': 'mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001842</t>
+  </si>
+  <si>
+    <t>{'label': 'pH (quality)', 'prefLabel': 'pH (quality)', 'altLabel': 'pH', 'name': 'PATO_0001842'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000196</t>
+  </si>
+  <si>
+    <t>{'label': 'pH'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003300</t>
+  </si>
+  <si>
+    <t>{'label': 'temperature process profile', 'prefLabel': 'temperature process profile', 'altLabel': 'temperature profile', 'name': 'AFP_0003300'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002770</t>
+  </si>
+  <si>
+    <t>{'label': 'temperature profile'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000148</t>
+  </si>
+  <si>
+    <t>{'label': 'in-port role', 'prefLabel': 'in-port role', 'altLabel': 'target', 'name': 'AFRL_0000148'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003064</t>
+  </si>
+  <si>
+    <t>{'label': 'target'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000184</t>
+  </si>
+  <si>
+    <t>{'label': 'cell count', 'prefLabel': 'cell count', 'altLabel': 'amount of cells', 'name': 'AFQ_0000184'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0080041</t>
+  </si>
+  <si>
+    <t>{'label': 'cell count'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003721</t>
+  </si>
+  <si>
+    <t>{'label': 'background correction', 'prefLabel': 'background correction', 'altLabel': None, 'name': 'AFP_0003721'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0040003</t>
+  </si>
+  <si>
+    <t>{'label': 'background correction'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003770</t>
+  </si>
+  <si>
+    <t>{'label': 'polymerase chain reaction', 'prefLabel': 'polymerase chain reaction', 'altLabel': 'PCR', 'name': 'AFP_0003770'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002080</t>
+  </si>
+  <si>
+    <t>{'label': 'polymerase chain reaction'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003797</t>
+  </si>
+  <si>
+    <t>{'label': 'concentration process profile', 'prefLabel': 'concentration process profile', 'altLabel': 'concentration profile', 'name': 'AFP_0003797'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002769</t>
+  </si>
+  <si>
+    <t>{'label': 'concentration profile'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000120</t>
+  </si>
+  <si>
+    <t>{'label': 'gel (quality)', 'prefLabel': 'gel (quality)', 'altLabel': 'gel', 'name': 'AFQ_0000120'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000005</t>
+  </si>
+  <si>
+    <t>{'label': 'ratio', 'prefLabel': 'ratio', 'altLabel': 'factor', 'name': 'AFQ_0000005'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000190</t>
+  </si>
+  <si>
+    <t>{'label': 'ratio'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000061</t>
+  </si>
+  <si>
+    <t>{'label': 'absorbance (quality)', 'prefLabel': 'absorbance (quality)', 'altLabel': 'absorbance', 'name': 'AFQ_0000061'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000070</t>
+  </si>
+  <si>
+    <t>{'label': 'absorbance'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000209</t>
+  </si>
+  <si>
+    <t>{'label': 'purity (quality)', 'prefLabel': 'purity (quality)', 'altLabel': 'purity', 'name': 'AFQ_0000209'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002618</t>
+  </si>
+  <si>
+    <t>{'label': 'purity'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000252</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular entity quality', 'prefLabel': 'molecular entity quality', 'altLabel': 'molecular quality', 'name': 'AFQ_0000252'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0002182</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular quality'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000012</t>
+  </si>
+  <si>
+    <t>{'label': 'detergent', 'prefLabel': 'detergent', 'altLabel': None, 'name': 'AFRE_0000012'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_27780</t>
+  </si>
+  <si>
+    <t>{'label': 'detergent'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000013</t>
+  </si>
+  <si>
+    <t>{'label': 'surfactant', 'prefLabel': 'surfactant', 'altLabel': None, 'name': 'AFRE_0000013'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35195</t>
+  </si>
+  <si>
+    <t>{'label': 'surfactant'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000935</t>
+  </si>
+  <si>
+    <t>{'label': 'radix', 'prefLabel': 'radix', 'altLabel': 'base', 'name': 'AFR_0000935'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_22695</t>
+  </si>
+  <si>
+    <t>{'label': 'base'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000954</t>
+  </si>
+  <si>
+    <t>{'label': 'rate', 'prefLabel': 'rate', 'altLabel': None, 'name': 'AFR_0000954'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0080019</t>
+  </si>
+  <si>
+    <t>{'label': 'rate'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000966</t>
+  </si>
+  <si>
+    <t>{'label': 'time datum', 'prefLabel': 'time datum', 'altLabel': 'time', 'name': 'AFR_0000966'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001072</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular structure', 'prefLabel': 'molecular structure', 'altLabel': None, 'name': 'AFR_0001072'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000138</t>
+  </si>
+  <si>
+    <t>{'label': 'molecular structure'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001090</t>
+  </si>
+  <si>
+    <t>{'label': 'slope', 'prefLabel': 'slope', 'altLabel': None, 'name': 'AFR_0001090'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002121</t>
+  </si>
+  <si>
+    <t>{'label': 'slope'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001142</t>
+  </si>
+  <si>
+    <t>{'label': 'pH', 'prefLabel': 'pH', 'altLabel': 'pH (datum)', 'name': 'AFR_0001142'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001157</t>
+  </si>
+  <si>
+    <t>{'label': 'absorbance', 'prefLabel': 'absorbance', 'altLabel': 'absorbance (datum)', 'name': 'AFR_0001157'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001159</t>
+  </si>
+  <si>
+    <t>{'label': 'wavelength', 'prefLabel': 'wavelength', 'altLabel': 'wavelength (datum)', 'name': 'AFR_0001159'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000565</t>
+  </si>
+  <si>
+    <t>{'label': 'wavelength'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001242</t>
+  </si>
+  <si>
+    <t>{'label': 'wavelength (quality)', 'prefLabel': 'wavelength (quality)', 'altLabel': 'wavelength', 'name': 'PATO_0001242'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000571</t>
+  </si>
+  <si>
+    <t>{'label': 'manufacturer role', 'prefLabel': 'manufacturer role', 'altLabel': 'manufacturer', 'name': 'OBI_0000571'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000558</t>
+  </si>
+  <si>
+    <t>{'label': 'manufacturer role'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000010</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': 'software', 'altLabel': None, 'name': 'IAO_0000010'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003119</t>
+  </si>
+  <si>
+    <t>{'label': 'software'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001508</t>
+  </si>
+  <si>
+    <t>{'label': 'statistical method', 'prefLabel': 'statistical method', 'altLabel': 'sampling method', 'name': 'AFR_0001508'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002335</t>
+  </si>
+  <si>
+    <t>{'label': 'statistical method'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002537</t>
+  </si>
+  <si>
+    <t>{'label': 'intensity', 'prefLabel': 'intensity', 'altLabel': None, 'name': 'AFR_0002537'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000049</t>
+  </si>
+  <si>
+    <t>{'label': 'intensity'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001589</t>
+  </si>
+  <si>
+    <t>{'label': 'Raman intensity', 'prefLabel': 'Raman intensity', 'altLabel': 'intensity', 'name': 'AFR_0001589'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001590</t>
+  </si>
+  <si>
+    <t>{'label': 'Raman interferogram intensity', 'prefLabel': 'Raman interferogram intensity', 'altLabel': 'intensity', 'name': 'AFR_0001590'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001817</t>
+  </si>
+  <si>
+    <t>{'label': 'length', 'prefLabel': 'length', 'altLabel': None, 'name': 'AFR_0001817'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'length'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001843</t>
+  </si>
+  <si>
+    <t>{'label': 'volume', 'prefLabel': 'volume', 'altLabel': 'volume (datum)', 'name': 'AFR_0001843'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'volume'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000157</t>
+  </si>
+  <si>
+    <t>{'label': 'measure', 'prefLabel': 'measure', 'altLabel': 'measured value', 'name': 'AFRL_0000157'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002070</t>
+  </si>
+  <si>
+    <t>{'label': 'measured value'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001980</t>
+  </si>
+  <si>
+    <t>{'label': 'assay comment', 'prefLabel': 'assay comment', 'altLabel': 'analysis comment', 'name': 'AFR_0001980'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000525</t>
+  </si>
+  <si>
+    <t>{'label': 'assay comment'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002056</t>
+  </si>
+  <si>
+    <t>{'label': 'temperature profile', 'prefLabel': 'temperature profile', 'altLabel': 'temperature profile result', 'name': 'AFR_0002056'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002076</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': 'area', 'altLabel': 'area (datum)', 'name': 'AFR_0002076'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'area'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002107</t>
+  </si>
+  <si>
+    <t>{'label': 'diameter', 'prefLabel': 'diameter', 'altLabel': 'diameter (datum)', 'name': 'AFR_0002107'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'diameter'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002371</t>
+  </si>
+  <si>
+    <t>{'label': 'purity', 'prefLabel': 'purity', 'altLabel': 'purity (datum)', 'name': 'AFR_0002371'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002208</t>
+  </si>
+  <si>
+    <t>{'label': 'arithmetic mean', 'prefLabel': 'arithmetic mean', 'altLabel': 'mean', 'name': 'AFR_0002208'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002173</t>
+  </si>
+  <si>
+    <t>{'label': 'mean'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002192</t>
+  </si>
+  <si>
+    <t>{'label': 'standard deviation', 'prefLabel': 'standard deviation', 'altLabel': None, 'name': 'AFR_0002192'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002176</t>
+  </si>
+  <si>
+    <t>{'label': 'standard deviation'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000527</t>
+  </si>
+  <si>
+    <t>{'label': 'standard deviation role', 'prefLabel': 'standard deviation role', 'altLabel': 'standard deviation', 'name': 'AFRL_0000527'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002209</t>
+  </si>
+  <si>
+    <t>{'label': 'median', 'prefLabel': 'median', 'altLabel': None, 'name': 'AFR_0002209'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002174</t>
+  </si>
+  <si>
+    <t>{'label': 'median'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000321</t>
+  </si>
+  <si>
+    <t>{'label': 'median role', 'prefLabel': 'median role', 'altLabel': 'median', 'name': 'AFRL_0000321'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002261</t>
+  </si>
+  <si>
+    <t>{'label': 'transmittance', 'prefLabel': 'transmittance', 'altLabel': None, 'name': 'AFR_0002261'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000071</t>
+  </si>
+  <si>
+    <t>{'label': 'transmittance'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002365</t>
+  </si>
+  <si>
+    <t>{'label': 'concentration profile', 'prefLabel': 'concentration profile', 'altLabel': 'concentration profile result', 'name': 'AFR_0002365'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000539</t>
+  </si>
+  <si>
+    <t>{'label': 'relative standard deviation role', 'prefLabel': 'relative standard deviation role', 'altLabel': 'coefficient of variation', 'name': 'AFRL_0000539'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000531</t>
+  </si>
+  <si>
+    <t>{'label': 'coefficient of variation'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002599</t>
+  </si>
+  <si>
+    <t>{'label': 'width', 'prefLabel': 'width', 'altLabel': 'width (datum)', 'name': 'AFR_0002599'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'width'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000154</t>
+  </si>
+  <si>
+    <t>{'label': 'calculated datum', 'prefLabel': 'calculated datum', 'altLabel': 'calculated value', 'name': 'AFRL_0000154'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002068</t>
+  </si>
+  <si>
+    <t>{'label': 'calculated value'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000217</t>
+  </si>
+  <si>
+    <t>{'label': 'catalyst role', 'prefLabel': 'catalyst role', 'altLabel': 'catalyst', 'name': 'AFRL_0000217'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35223</t>
+  </si>
+  <si>
+    <t>{'label': 'catalyst'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000086</t>
+  </si>
+  <si>
+    <t>{'label': 'reagent role', 'prefLabel': 'reagent role', 'altLabel': 'reagent', 'name': 'OBI_0000086'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_33893</t>
+  </si>
+  <si>
+    <t>{'label': 'reagent'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000223</t>
+  </si>
+  <si>
+    <t>{'label': 'detergent role', 'prefLabel': 'detergent role', 'altLabel': 'detergent', 'name': 'AFRL_0000223'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000226</t>
+  </si>
+  <si>
+    <t>{'label': 'excipient role', 'prefLabel': 'excipient role', 'altLabel': 'excipient', 'name': 'AFRL_0000226'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_75324</t>
+  </si>
+  <si>
+    <t>{'label': 'excipient'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000244</t>
+  </si>
+  <si>
+    <t>{'label': 'cleaning agent role', 'prefLabel': 'cleaning agent role', 'altLabel': 'detergent', 'name': 'AFRL_0000244'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000405</t>
+  </si>
+  <si>
+    <t>{'label': 'researcher', 'prefLabel': 'researcher', 'altLabel': None, 'name': 'AFRL_0000405'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0165001</t>
+  </si>
+  <si>
+    <t>{'label': 'researcher'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000443</t>
+  </si>
+  <si>
+    <t>{'label': 'product (math)', 'prefLabel': 'product (math)', 'altLabel': 'product', 'name': 'AFRL_0000443'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003067</t>
+  </si>
+  <si>
+    <t>{'label': 'product'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000480</t>
+  </si>
+  <si>
+    <t>{'label': 'fuel role', 'prefLabel': 'fuel role', 'altLabel': 'fuel', 'name': 'AFRL_0000480'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_33292</t>
+  </si>
+  <si>
+    <t>{'label': 'fuel'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000496</t>
+  </si>
+  <si>
+    <t>{'label': 'product ion role', 'prefLabel': 'product ion role', 'altLabel': 'product', 'name': 'AFRL_0000496'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
+  </si>
+  <si>
+    <t>{'label': 'organism', 'prefLabel': 'organism', 'altLabel': None, 'name': 'OBI_0100026'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000551</t>
+  </si>
+  <si>
+    <t>{'label': 'organism'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000970</t>
+  </si>
+  <si>
+    <t>{'label': 'permeability', 'prefLabel': 'permeability', 'altLabel': None, 'name': 'PATO_0000970'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002808</t>
+  </si>
+  <si>
+    <t>{'label': 'permeability'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0002070</t>
+  </si>
+  <si>
+    <t>{'label': 'affinity', 'prefLabel': 'affinity', 'altLabel': None, 'name': 'PATO_0002070'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20604</t>
+  </si>
+  <si>
+    <t>{'label': 'affinity'}</t>
+  </si>
+  <si>
+    <t>http://qudt.org/schema/qudt#Dimension</t>
+  </si>
+  <si>
+    <t>{'label': 'dimension', 'prefLabel': 'dimension', 'altLabel': None, 'name': 'Dimension'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'dimension'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,15 +1661,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,19 +1683,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,166 +2065,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
@@ -1140,10 +2232,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -1151,32 +2243,32 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1184,10 +2276,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1195,10 +2287,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1206,10 +2298,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -1217,10 +2309,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1228,10 +2320,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -1239,10 +2331,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -1250,32 +2342,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -1283,32 +2375,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -1316,10 +2408,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1327,32 +2419,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -1360,10 +2452,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -1371,10 +2463,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
@@ -1382,10 +2474,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -1393,21 +2485,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -1415,10 +2507,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
@@ -1426,10 +2518,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
@@ -1437,10 +2529,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
@@ -1448,21 +2540,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
@@ -1470,10 +2562,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
@@ -1481,10 +2573,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -1492,32 +2584,32 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -1525,32 +2617,32 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -1558,10 +2650,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -1569,10 +2661,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>6</v>
@@ -1580,32 +2672,32 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
@@ -1613,10 +2705,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1624,10 +2716,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
@@ -1635,10 +2727,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -1646,10 +2738,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
@@ -1657,32 +2749,32 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
@@ -1690,10 +2782,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -1701,175 +2793,175 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C72">
     <sortState ref="A2:C72">
-      <sortCondition ref="A1:A72"/>
+      <sortCondition descending="1" ref="C1:C72"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
-    <hyperlink ref="A18" r:id="rId3" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
-    <hyperlink ref="B18" r:id="rId4" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
-    <hyperlink ref="A59" r:id="rId5" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002192&amp;p=classes"/>
-    <hyperlink ref="B59" r:id="rId6" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002176&amp;p=classes"/>
-    <hyperlink ref="A17" r:id="rId7" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001033&amp;p=classes"/>
-    <hyperlink ref="B17" r:id="rId8" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010018&amp;p=classes"/>
-    <hyperlink ref="A24" r:id="rId9" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000900&amp;p=classes"/>
-    <hyperlink ref="B24" r:id="rId10" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002172&amp;p=classes"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
+    <hyperlink ref="A62" r:id="rId5" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002192&amp;p=classes"/>
+    <hyperlink ref="B62" r:id="rId6" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002176&amp;p=classes"/>
+    <hyperlink ref="A27" r:id="rId7" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001033&amp;p=classes"/>
+    <hyperlink ref="B27" r:id="rId8" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010018&amp;p=classes"/>
+    <hyperlink ref="A32" r:id="rId9" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000900&amp;p=classes"/>
+    <hyperlink ref="B32" r:id="rId10" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002172&amp;p=classes"/>
     <hyperlink ref="A2" r:id="rId11" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001708&amp;p=classes"/>
     <hyperlink ref="B2" r:id="rId12" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001708&amp;p=classes"/>
-    <hyperlink ref="A67" r:id="rId13" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001843&amp;p=classes"/>
-    <hyperlink ref="B67" r:id="rId14" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
-    <hyperlink ref="A37" r:id="rId15" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001404&amp;p=classes"/>
-    <hyperlink ref="B37" r:id="rId16" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000451&amp;p=classes"/>
-    <hyperlink ref="A48" r:id="rId17" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000954&amp;p=classes"/>
-    <hyperlink ref="B48" r:id="rId18" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080019&amp;p=classes"/>
-    <hyperlink ref="A71" r:id="rId19" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002599&amp;p=classes"/>
-    <hyperlink ref="B71" r:id="rId20" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
-    <hyperlink ref="A19" r:id="rId21" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002537&amp;p=classes"/>
-    <hyperlink ref="B19" r:id="rId22" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000049&amp;p=classes"/>
-    <hyperlink ref="A58" r:id="rId23" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000010&amp;p=classes"/>
-    <hyperlink ref="B58" r:id="rId24" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003119&amp;p=classes"/>
+    <hyperlink ref="A69" r:id="rId13" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001843&amp;p=classes"/>
+    <hyperlink ref="B69" r:id="rId14" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="A43" r:id="rId15" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001404&amp;p=classes"/>
+    <hyperlink ref="B43" r:id="rId16" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000451&amp;p=classes"/>
+    <hyperlink ref="A53" r:id="rId17" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000954&amp;p=classes"/>
+    <hyperlink ref="B53" r:id="rId18" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080019&amp;p=classes"/>
+    <hyperlink ref="A72" r:id="rId19" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002599&amp;p=classes"/>
+    <hyperlink ref="B72" r:id="rId20" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="A28" r:id="rId21" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002537&amp;p=classes"/>
+    <hyperlink ref="B28" r:id="rId22" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000049&amp;p=classes"/>
+    <hyperlink ref="A61" r:id="rId23" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000010&amp;p=classes"/>
+    <hyperlink ref="B61" r:id="rId24" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003119&amp;p=classes"/>
     <hyperlink ref="A3" r:id="rId25" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001709&amp;p=classes"/>
     <hyperlink ref="B3" r:id="rId26" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001709&amp;p=classes"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000040&amp;p=classes"/>
-    <hyperlink ref="B27" r:id="rId28" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003116&amp;p=classes"/>
-    <hyperlink ref="A43" r:id="rId29" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000970&amp;p=classes"/>
-    <hyperlink ref="B43" r:id="rId30" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002808&amp;p=classes"/>
-    <hyperlink ref="A8" r:id="rId31" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001980&amp;p=classes"/>
-    <hyperlink ref="B8" r:id="rId32" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000525&amp;p=classes"/>
-    <hyperlink ref="A29" r:id="rId33" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000825&amp;p=classes"/>
-    <hyperlink ref="B29" r:id="rId34" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150008&amp;p=classes"/>
-    <hyperlink ref="A30" r:id="rId35" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000044&amp;p=classes"/>
-    <hyperlink ref="B30" r:id="rId36" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002526&amp;p=classes"/>
-    <hyperlink ref="A16" r:id="rId37" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000034&amp;p=classes"/>
-    <hyperlink ref="B16" r:id="rId38" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003117&amp;p=classes"/>
-    <hyperlink ref="A15" r:id="rId39" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000085&amp;p=classes"/>
-    <hyperlink ref="B15" r:id="rId40" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_37958&amp;p=classes"/>
-    <hyperlink ref="A25" r:id="rId41" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0000571&amp;p=classes"/>
-    <hyperlink ref="B25" r:id="rId42" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000558&amp;p=classes"/>
-    <hyperlink ref="A36" r:id="rId43" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000129&amp;p=classes"/>
-    <hyperlink ref="B36" r:id="rId44" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150009&amp;p=classes"/>
-    <hyperlink ref="A64" r:id="rId45" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000937&amp;p=classes"/>
-    <hyperlink ref="B64" r:id="rId46" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000165&amp;p=classes"/>
-    <hyperlink ref="A50" r:id="rId47" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frole%23AFRL_0000405&amp;p=classes"/>
-    <hyperlink ref="B50" r:id="rId48" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0165001&amp;p=classes"/>
-    <hyperlink ref="A41" r:id="rId49" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fxmlns.com%2Ffoaf%2F0.1%2FOrganization&amp;p=classes"/>
-    <hyperlink ref="B41" r:id="rId50" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
-    <hyperlink ref="A23" r:id="rId51" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000225&amp;p=classes"/>
-    <hyperlink ref="B23" r:id="rId52" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FERO_0001500&amp;p=classes"/>
-    <hyperlink ref="A38" r:id="rId53" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
-    <hyperlink ref="B38" r:id="rId54" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
-    <hyperlink ref="A52" r:id="rId55" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fwww.w3.org%2Fns%2Fshacl%23Shape&amp;p=classes"/>
-    <hyperlink ref="B52" r:id="rId56" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
-    <hyperlink ref="A56" r:id="rId57" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
-    <hyperlink ref="B56" r:id="rId58" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
-    <hyperlink ref="A34" r:id="rId59" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
-    <hyperlink ref="B34" r:id="rId60" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
-    <hyperlink ref="A66" r:id="rId61" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000718&amp;p=classes"/>
-    <hyperlink ref="B66" r:id="rId62" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010014&amp;p=classes"/>
-    <hyperlink ref="A53" r:id="rId63" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
-    <hyperlink ref="B53" r:id="rId64" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
-    <hyperlink ref="A7" r:id="rId65" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
-    <hyperlink ref="B7" r:id="rId66" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
-    <hyperlink ref="A51" r:id="rId67" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000023&amp;p=classes"/>
-    <hyperlink ref="B51" r:id="rId68" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002929&amp;p=classes"/>
-    <hyperlink ref="A21" r:id="rId69" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001817&amp;p=classes"/>
-    <hyperlink ref="B21" r:id="rId70" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="A35" r:id="rId27" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000040&amp;p=classes"/>
+    <hyperlink ref="B35" r:id="rId28" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003116&amp;p=classes"/>
+    <hyperlink ref="A48" r:id="rId29" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000970&amp;p=classes"/>
+    <hyperlink ref="B48" r:id="rId30" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002808&amp;p=classes"/>
+    <hyperlink ref="A20" r:id="rId31" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001980&amp;p=classes"/>
+    <hyperlink ref="B20" r:id="rId32" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000525&amp;p=classes"/>
+    <hyperlink ref="A37" r:id="rId33" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000825&amp;p=classes"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150008&amp;p=classes"/>
+    <hyperlink ref="A38" r:id="rId35" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000044&amp;p=classes"/>
+    <hyperlink ref="B38" r:id="rId36" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002526&amp;p=classes"/>
+    <hyperlink ref="A26" r:id="rId37" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000034&amp;p=classes"/>
+    <hyperlink ref="B26" r:id="rId38" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003117&amp;p=classes"/>
+    <hyperlink ref="A25" r:id="rId39" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000085&amp;p=classes"/>
+    <hyperlink ref="B25" r:id="rId40" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_37958&amp;p=classes"/>
+    <hyperlink ref="A33" r:id="rId41" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0000571&amp;p=classes"/>
+    <hyperlink ref="B33" r:id="rId42" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000558&amp;p=classes"/>
+    <hyperlink ref="A42" r:id="rId43" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000129&amp;p=classes"/>
+    <hyperlink ref="B42" r:id="rId44" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150009&amp;p=classes"/>
+    <hyperlink ref="A66" r:id="rId45" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000937&amp;p=classes"/>
+    <hyperlink ref="B66" r:id="rId46" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000165&amp;p=classes"/>
+    <hyperlink ref="A55" r:id="rId47" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frole%23AFRL_0000405&amp;p=classes"/>
+    <hyperlink ref="B55" r:id="rId48" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0165001&amp;p=classes"/>
+    <hyperlink ref="A46" r:id="rId49" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fxmlns.com%2Ffoaf%2F0.1%2FOrganization&amp;p=classes"/>
+    <hyperlink ref="B46" r:id="rId50" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
+    <hyperlink ref="A31" r:id="rId51" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000225&amp;p=classes"/>
+    <hyperlink ref="B31" r:id="rId52" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FERO_0001500&amp;p=classes"/>
+    <hyperlink ref="A12" r:id="rId53" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
+    <hyperlink ref="B12" r:id="rId54" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
+    <hyperlink ref="A57" r:id="rId55" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fwww.w3.org%2Fns%2Fshacl%23Shape&amp;p=classes"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="A14" r:id="rId57" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="B14" r:id="rId58" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="A11" r:id="rId59" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
+    <hyperlink ref="B11" r:id="rId60" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
+    <hyperlink ref="A68" r:id="rId61" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000718&amp;p=classes"/>
+    <hyperlink ref="B68" r:id="rId62" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010014&amp;p=classes"/>
+    <hyperlink ref="A13" r:id="rId63" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="B13" r:id="rId64" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="A5" r:id="rId65" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="B5" r:id="rId66" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="A56" r:id="rId67" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000023&amp;p=classes"/>
+    <hyperlink ref="B56" r:id="rId68" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002929&amp;p=classes"/>
+    <hyperlink ref="A30" r:id="rId69" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001817&amp;p=classes"/>
+    <hyperlink ref="B30" r:id="rId70" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
     <hyperlink ref="A4" r:id="rId71" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001710&amp;p=classes"/>
     <hyperlink ref="B4" r:id="rId72" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001710&amp;p=classes"/>
-    <hyperlink ref="A28" r:id="rId73" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002209&amp;p=classes"/>
-    <hyperlink ref="B28" r:id="rId74" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002174&amp;p=classes"/>
-    <hyperlink ref="A42" r:id="rId75" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001085&amp;p=classes"/>
-    <hyperlink ref="B42" r:id="rId76" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
-    <hyperlink ref="A70" r:id="rId77" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001159&amp;p=classes"/>
-    <hyperlink ref="B70" r:id="rId78" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000565&amp;p=classes"/>
-    <hyperlink ref="A26" r:id="rId79" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001427&amp;p=classes"/>
-    <hyperlink ref="B26" r:id="rId80" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000055&amp;p=classes"/>
-    <hyperlink ref="A6" r:id="rId81" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002076&amp;p=classes"/>
-    <hyperlink ref="B6" r:id="rId82" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
-    <hyperlink ref="A49" r:id="rId83" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000005&amp;p=classes"/>
-    <hyperlink ref="B49" r:id="rId84" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0190001&amp;p=classes"/>
-    <hyperlink ref="A65" r:id="rId85" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002261&amp;p=classes"/>
-    <hyperlink ref="B65" r:id="rId86" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000071&amp;p=classes"/>
-    <hyperlink ref="A57" r:id="rId87" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001090&amp;p=classes"/>
-    <hyperlink ref="B57" r:id="rId88" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002121&amp;p=classes"/>
-    <hyperlink ref="A20" r:id="rId89" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000441&amp;p=classes"/>
-    <hyperlink ref="B20" r:id="rId90" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002414&amp;p=classes"/>
-    <hyperlink ref="A31" r:id="rId91" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
-    <hyperlink ref="B31" r:id="rId92" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
-    <hyperlink ref="A32" r:id="rId93" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
-    <hyperlink ref="B32" r:id="rId94" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003043&amp;p=classes"/>
-    <hyperlink ref="A63" r:id="rId95" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002056&amp;p=classes"/>
-    <hyperlink ref="B63" r:id="rId96" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002770&amp;p=classes"/>
-    <hyperlink ref="A72" r:id="rId97" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
-    <hyperlink ref="B72" r:id="rId98" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
-    <hyperlink ref="A10" r:id="rId99" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000184&amp;p=classes"/>
-    <hyperlink ref="B10" r:id="rId100" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080041&amp;p=classes"/>
-    <hyperlink ref="A61" r:id="rId101" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
-    <hyperlink ref="B61" r:id="rId102" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
-    <hyperlink ref="A44" r:id="rId103" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003770&amp;p=classes"/>
-    <hyperlink ref="B44" r:id="rId104" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002080&amp;p=classes"/>
-    <hyperlink ref="A69" r:id="rId105" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000634&amp;p=classes"/>
-    <hyperlink ref="B69" r:id="rId106" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002454&amp;p=classes"/>
-    <hyperlink ref="A5" r:id="rId107" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0002070&amp;p=classes"/>
-    <hyperlink ref="B5" r:id="rId108" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C20604&amp;p=classes"/>
-    <hyperlink ref="A46" r:id="rId109" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002371&amp;p=classes"/>
-    <hyperlink ref="B46" r:id="rId110" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002618&amp;p=classes"/>
-    <hyperlink ref="A33" r:id="rId111" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001072&amp;p=classes"/>
-    <hyperlink ref="B33" r:id="rId112" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000138&amp;p=classes"/>
-    <hyperlink ref="A22" r:id="rId113" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
-    <hyperlink ref="B22" r:id="rId114" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
-    <hyperlink ref="A62" r:id="rId115" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000442&amp;p=classes"/>
-    <hyperlink ref="B62" r:id="rId116" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002104&amp;p=classes"/>
-    <hyperlink ref="A54" r:id="rId117" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003552&amp;p=classes"/>
-    <hyperlink ref="B54" r:id="rId118" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0023052&amp;p=classes"/>
-    <hyperlink ref="A60" r:id="rId119" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001508&amp;p=classes"/>
-    <hyperlink ref="B60" r:id="rId120" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002335&amp;p=classes"/>
-    <hyperlink ref="A47" r:id="rId121" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000019&amp;p=classes"/>
-    <hyperlink ref="B47" r:id="rId122" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002928&amp;p=classes"/>
-    <hyperlink ref="A45" r:id="rId123" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0002248&amp;p=classes"/>
-    <hyperlink ref="B45" r:id="rId124" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_50406&amp;p=classes"/>
-    <hyperlink ref="A9" r:id="rId125" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003721&amp;p=classes"/>
-    <hyperlink ref="B9" r:id="rId126" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0040003&amp;p=classes"/>
-    <hyperlink ref="A68" r:id="rId127" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
-    <hyperlink ref="A35" r:id="rId129" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000226&amp;p=classes"/>
-    <hyperlink ref="B35" r:id="rId130" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0005634&amp;p=classes"/>
-    <hyperlink ref="A40" r:id="rId131" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001995&amp;p=classes"/>
-    <hyperlink ref="B40" r:id="rId132" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0120002&amp;p=classes"/>
-    <hyperlink ref="A55" r:id="rId133" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000936&amp;p=classes"/>
-    <hyperlink ref="B55" r:id="rId134" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
-    <hyperlink ref="A13" r:id="rId135" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002107&amp;p=classes"/>
-    <hyperlink ref="B13" r:id="rId136" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
-    <hyperlink ref="A11" r:id="rId137" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
-    <hyperlink ref="B11" r:id="rId138" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
-    <hyperlink ref="A39" r:id="rId139" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0100026&amp;p=classes"/>
-    <hyperlink ref="B39" r:id="rId140" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000551&amp;p=classes"/>
-    <hyperlink ref="A12" r:id="rId141" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frealizable%23AFRE_0000012&amp;p=classes"/>
-    <hyperlink ref="B12" r:id="rId142" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_27780&amp;p=classes"/>
+    <hyperlink ref="A36" r:id="rId73" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002209&amp;p=classes"/>
+    <hyperlink ref="B36" r:id="rId74" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002174&amp;p=classes"/>
+    <hyperlink ref="A47" r:id="rId75" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001085&amp;p=classes"/>
+    <hyperlink ref="B47" r:id="rId76" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
+    <hyperlink ref="A71" r:id="rId77" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001159&amp;p=classes"/>
+    <hyperlink ref="B71" r:id="rId78" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000565&amp;p=classes"/>
+    <hyperlink ref="A34" r:id="rId79" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001427&amp;p=classes"/>
+    <hyperlink ref="B34" r:id="rId80" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000055&amp;p=classes"/>
+    <hyperlink ref="A19" r:id="rId81" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002076&amp;p=classes"/>
+    <hyperlink ref="B19" r:id="rId82" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="A54" r:id="rId83" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000005&amp;p=classes"/>
+    <hyperlink ref="B54" r:id="rId84" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0190001&amp;p=classes"/>
+    <hyperlink ref="A67" r:id="rId85" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002261&amp;p=classes"/>
+    <hyperlink ref="B67" r:id="rId86" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000071&amp;p=classes"/>
+    <hyperlink ref="A60" r:id="rId87" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001090&amp;p=classes"/>
+    <hyperlink ref="B60" r:id="rId88" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002121&amp;p=classes"/>
+    <hyperlink ref="A29" r:id="rId89" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000441&amp;p=classes"/>
+    <hyperlink ref="B29" r:id="rId90" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002414&amp;p=classes"/>
+    <hyperlink ref="A10" r:id="rId91" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="B10" r:id="rId92" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="A39" r:id="rId93" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="B39" r:id="rId94" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003043&amp;p=classes"/>
+    <hyperlink ref="A65" r:id="rId95" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002056&amp;p=classes"/>
+    <hyperlink ref="B65" r:id="rId96" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002770&amp;p=classes"/>
+    <hyperlink ref="A17" r:id="rId97" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="B17" r:id="rId98" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="A22" r:id="rId99" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000184&amp;p=classes"/>
+    <hyperlink ref="B22" r:id="rId100" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080041&amp;p=classes"/>
+    <hyperlink ref="A15" r:id="rId101" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
+    <hyperlink ref="B15" r:id="rId102" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
+    <hyperlink ref="A49" r:id="rId103" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003770&amp;p=classes"/>
+    <hyperlink ref="B49" r:id="rId104" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002080&amp;p=classes"/>
+    <hyperlink ref="A70" r:id="rId105" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000634&amp;p=classes"/>
+    <hyperlink ref="B70" r:id="rId106" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002454&amp;p=classes"/>
+    <hyperlink ref="A18" r:id="rId107" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0002070&amp;p=classes"/>
+    <hyperlink ref="B18" r:id="rId108" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C20604&amp;p=classes"/>
+    <hyperlink ref="A51" r:id="rId109" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002371&amp;p=classes"/>
+    <hyperlink ref="B51" r:id="rId110" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002618&amp;p=classes"/>
+    <hyperlink ref="A40" r:id="rId111" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001072&amp;p=classes"/>
+    <hyperlink ref="B40" r:id="rId112" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000138&amp;p=classes"/>
+    <hyperlink ref="A9" r:id="rId113" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="B9" r:id="rId114" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="A64" r:id="rId115" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000442&amp;p=classes"/>
+    <hyperlink ref="B64" r:id="rId116" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002104&amp;p=classes"/>
+    <hyperlink ref="A58" r:id="rId117" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003552&amp;p=classes"/>
+    <hyperlink ref="B58" r:id="rId118" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0023052&amp;p=classes"/>
+    <hyperlink ref="A63" r:id="rId119" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001508&amp;p=classes"/>
+    <hyperlink ref="B63" r:id="rId120" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002335&amp;p=classes"/>
+    <hyperlink ref="A52" r:id="rId121" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000019&amp;p=classes"/>
+    <hyperlink ref="B52" r:id="rId122" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002928&amp;p=classes"/>
+    <hyperlink ref="A50" r:id="rId123" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0002248&amp;p=classes"/>
+    <hyperlink ref="B50" r:id="rId124" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_50406&amp;p=classes"/>
+    <hyperlink ref="A21" r:id="rId125" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003721&amp;p=classes"/>
+    <hyperlink ref="B21" r:id="rId126" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0040003&amp;p=classes"/>
+    <hyperlink ref="A16" r:id="rId127" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="B16" r:id="rId128" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="A41" r:id="rId129" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000226&amp;p=classes"/>
+    <hyperlink ref="B41" r:id="rId130" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0005634&amp;p=classes"/>
+    <hyperlink ref="A45" r:id="rId131" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001995&amp;p=classes"/>
+    <hyperlink ref="B45" r:id="rId132" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0120002&amp;p=classes"/>
+    <hyperlink ref="A59" r:id="rId133" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000936&amp;p=classes"/>
+    <hyperlink ref="B59" r:id="rId134" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="A24" r:id="rId135" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002107&amp;p=classes"/>
+    <hyperlink ref="B24" r:id="rId136" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="A6" r:id="rId137" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
+    <hyperlink ref="B6" r:id="rId138" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
+    <hyperlink ref="A44" r:id="rId139" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0100026&amp;p=classes"/>
+    <hyperlink ref="B44" r:id="rId140" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000551&amp;p=classes"/>
+    <hyperlink ref="A23" r:id="rId141" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frealizable%23AFRE_0000012&amp;p=classes"/>
+    <hyperlink ref="B23" r:id="rId142" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_27780&amp;p=classes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1879,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection sqref="A1:A104"/>
     </sheetView>
   </sheetViews>
@@ -2408,4 +3500,5272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:E105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" t="s">
+        <v>388</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" t="s">
+        <v>394</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" t="s">
+        <v>398</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" t="s">
+        <v>406</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" t="s">
+        <v>410</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" t="s">
+        <v>412</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" t="s">
+        <v>416</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C72" t="s">
+        <v>424</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" t="s">
+        <v>430</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E74" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C75" t="s">
+        <v>432</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C76" t="s">
+        <v>435</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C78" t="s">
+        <v>442</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E78" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C80" t="s">
+        <v>448</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C81" t="s">
+        <v>451</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>454</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C83" t="s">
+        <v>456</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C84" t="s">
+        <v>460</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C85" t="s">
+        <v>464</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C86" t="s">
+        <v>466</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C87" t="s">
+        <v>470</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C88" t="s">
+        <v>472</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C89" t="s">
+        <v>476</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" t="s">
+        <v>478</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C91" t="s">
+        <v>482</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C92" t="s">
+        <v>485</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E92" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C93" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C94" t="s">
+        <v>493</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E94" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C95" t="s">
+        <v>497</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C96" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E96" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C98" t="s">
+        <v>505</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E98" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C99" t="s">
+        <v>509</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E99" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C100" t="s">
+        <v>513</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E101" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" t="s">
+        <v>519</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E102" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E103" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C104" t="s">
+        <v>527</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E104" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C105" t="s">
+        <v>531</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33" location="Shape"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35" location="AFR_0000951"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38" location="BAO_0003116"/>
+    <hyperlink ref="B21" r:id="rId39" location="AFR_0000900"/>
+    <hyperlink ref="D21" r:id="rId40" location="BAO_0002172"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42" location="BAO_0003117"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44" location="BAO_0002928"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46" location="BAO_0002929"/>
+    <hyperlink ref="B25" r:id="rId47" location="AFE_0000129"/>
+    <hyperlink ref="D25" r:id="rId48" location="BAO_0150009"/>
+    <hyperlink ref="B26" r:id="rId49" location="AFE_0000825"/>
+    <hyperlink ref="D26" r:id="rId50" location="BAO_0150008"/>
+    <hyperlink ref="B27" r:id="rId51" location="AFP_0001404"/>
+    <hyperlink ref="D27" r:id="rId52" location="BAO_0000451"/>
+    <hyperlink ref="B28" r:id="rId53" location="AFE_0000224"/>
+    <hyperlink ref="D28" r:id="rId54" location="BAO_0002733"/>
+    <hyperlink ref="B29" r:id="rId55" location="AFE_0000718"/>
+    <hyperlink ref="D29" r:id="rId56" location="BAO_0010014"/>
+    <hyperlink ref="B30" r:id="rId57" location="AFE_0002254"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="B31" r:id="rId59" location="AFP_0000044"/>
+    <hyperlink ref="D31" r:id="rId60" location="BAO_0002526"/>
+    <hyperlink ref="B32" r:id="rId61" location="AFR_0000937"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63" location="AFP_0000441"/>
+    <hyperlink ref="D33" r:id="rId64" location="BAO_0002414"/>
+    <hyperlink ref="B34" r:id="rId65" location="AFE_0002248"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67" location="AFP_0003552"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70" location="BAO_0003043"/>
+    <hyperlink ref="B37" r:id="rId71" location="AFM_0000085"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId73" location="AFM_0000226"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75" location="AFM_0000442"/>
+    <hyperlink ref="D39" r:id="rId76" location="BAO_0002104"/>
+    <hyperlink ref="B40" r:id="rId77" location="AFM_0001033"/>
+    <hyperlink ref="D40" r:id="rId78" location="BAO_0010018"/>
+    <hyperlink ref="B41" r:id="rId79" location="AFM_0001085"/>
+    <hyperlink ref="D41" r:id="rId80" location="BAO_0002934"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82" location="BAO_0002934"/>
+    <hyperlink ref="B43" r:id="rId83" location="AFRL_0000269"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="B44" r:id="rId85" location="AFP_0000634"/>
+    <hyperlink ref="D44" r:id="rId86" location="BAO_0002454"/>
+    <hyperlink ref="B45" r:id="rId87" location="AFP_0001427"/>
+    <hyperlink ref="D45" r:id="rId88" location="BAO_0000055"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="B47" r:id="rId91" location="AFP_0003300"/>
+    <hyperlink ref="D47" r:id="rId92" location="BAO_0002770"/>
+    <hyperlink ref="B48" r:id="rId93" location="AFRL_0000148"/>
+    <hyperlink ref="D48" r:id="rId94" location="BAO_0003064"/>
+    <hyperlink ref="B49" r:id="rId95" location="AFQ_0000184"/>
+    <hyperlink ref="D49" r:id="rId96" location="BAO_0080041"/>
+    <hyperlink ref="B50" r:id="rId97" location="AFP_0003721"/>
+    <hyperlink ref="D50" r:id="rId98" location="BAO_0040003"/>
+    <hyperlink ref="B51" r:id="rId99" location="AFP_0003770"/>
+    <hyperlink ref="D51" r:id="rId100" location="BAO_0002080"/>
+    <hyperlink ref="B52" r:id="rId101" location="AFP_0003797"/>
+    <hyperlink ref="D52" r:id="rId102" location="BAO_0002769"/>
+    <hyperlink ref="B53" r:id="rId103" location="AFQ_0000120"/>
+    <hyperlink ref="D53" r:id="rId104" location="BAO_0010018"/>
+    <hyperlink ref="B54" r:id="rId105" location="AFQ_0000005"/>
+    <hyperlink ref="D54" r:id="rId106"/>
+    <hyperlink ref="B55" r:id="rId107" location="AFQ_0000061"/>
+    <hyperlink ref="D55" r:id="rId108" location="BAO_0000070"/>
+    <hyperlink ref="B56" r:id="rId109" location="AFQ_0000209"/>
+    <hyperlink ref="D56" r:id="rId110" location="BAO_0002618"/>
+    <hyperlink ref="B57" r:id="rId111" location="AFQ_0000252"/>
+    <hyperlink ref="D57" r:id="rId112"/>
+    <hyperlink ref="B58" r:id="rId113" location="AFRE_0000012"/>
+    <hyperlink ref="D58" r:id="rId114"/>
+    <hyperlink ref="B59" r:id="rId115" location="AFRE_0000013"/>
+    <hyperlink ref="D59" r:id="rId116"/>
+    <hyperlink ref="B60" r:id="rId117" location="AFR_0000935"/>
+    <hyperlink ref="D60" r:id="rId118"/>
+    <hyperlink ref="B61" r:id="rId119" location="AFR_0000954"/>
+    <hyperlink ref="D61" r:id="rId120" location="BAO_0080019"/>
+    <hyperlink ref="B62" r:id="rId121" location="AFR_0000966"/>
+    <hyperlink ref="D62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123" location="AFR_0001072"/>
+    <hyperlink ref="D63" r:id="rId124" location="BAO_0000138"/>
+    <hyperlink ref="B64" r:id="rId125" location="AFR_0001090"/>
+    <hyperlink ref="D64" r:id="rId126" location="BAO_0002121"/>
+    <hyperlink ref="B65" r:id="rId127" location="AFR_0001142"/>
+    <hyperlink ref="D65" r:id="rId128"/>
+    <hyperlink ref="B66" r:id="rId129" location="AFR_0001157"/>
+    <hyperlink ref="D66" r:id="rId130" location="BAO_0000070"/>
+    <hyperlink ref="B67" r:id="rId131" location="AFR_0001159"/>
+    <hyperlink ref="D67" r:id="rId132" location="BAO_0000565"/>
+    <hyperlink ref="B68" r:id="rId133"/>
+    <hyperlink ref="D68" r:id="rId134" location="BAO_0000565"/>
+    <hyperlink ref="B69" r:id="rId135"/>
+    <hyperlink ref="D69" r:id="rId136" location="BAO_0000558"/>
+    <hyperlink ref="B70" r:id="rId137"/>
+    <hyperlink ref="D70" r:id="rId138" location="BAO_0003119"/>
+    <hyperlink ref="B71" r:id="rId139" location="AFR_0001508"/>
+    <hyperlink ref="D71" r:id="rId140" location="BAO_0002335"/>
+    <hyperlink ref="B72" r:id="rId141" location="AFR_0002537"/>
+    <hyperlink ref="D72" r:id="rId142"/>
+    <hyperlink ref="B73" r:id="rId143" location="AFR_0001589"/>
+    <hyperlink ref="D73" r:id="rId144"/>
+    <hyperlink ref="B74" r:id="rId145" location="AFR_0001590"/>
+    <hyperlink ref="D74" r:id="rId146"/>
+    <hyperlink ref="B75" r:id="rId147" location="AFR_0001817"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="B76" r:id="rId149" location="AFR_0001843"/>
+    <hyperlink ref="D76" r:id="rId150"/>
+    <hyperlink ref="B77" r:id="rId151" location="AFRL_0000157"/>
+    <hyperlink ref="D77" r:id="rId152" location="BAO_0002070"/>
+    <hyperlink ref="B78" r:id="rId153" location="AFR_0001980"/>
+    <hyperlink ref="D78" r:id="rId154" location="BAO_0000525"/>
+    <hyperlink ref="B79" r:id="rId155" location="AFR_0002056"/>
+    <hyperlink ref="D79" r:id="rId156" location="BAO_0002770"/>
+    <hyperlink ref="B80" r:id="rId157" location="AFR_0002076"/>
+    <hyperlink ref="D80" r:id="rId158"/>
+    <hyperlink ref="B81" r:id="rId159" location="AFR_0002107"/>
+    <hyperlink ref="D81" r:id="rId160"/>
+    <hyperlink ref="B82" r:id="rId161" location="AFR_0002371"/>
+    <hyperlink ref="D82" r:id="rId162" location="BAO_0002618"/>
+    <hyperlink ref="B83" r:id="rId163" location="AFR_0002208"/>
+    <hyperlink ref="D83" r:id="rId164" location="BAO_0002173"/>
+    <hyperlink ref="B84" r:id="rId165" location="AFR_0002192"/>
+    <hyperlink ref="D84" r:id="rId166" location="BAO_0002176"/>
+    <hyperlink ref="B85" r:id="rId167" location="AFRL_0000527"/>
+    <hyperlink ref="D85" r:id="rId168" location="BAO_0002176"/>
+    <hyperlink ref="B86" r:id="rId169" location="AFR_0002209"/>
+    <hyperlink ref="D86" r:id="rId170" location="BAO_0002174"/>
+    <hyperlink ref="B87" r:id="rId171" location="AFRL_0000321"/>
+    <hyperlink ref="D87" r:id="rId172" location="BAO_0002174"/>
+    <hyperlink ref="B88" r:id="rId173" location="AFR_0002261"/>
+    <hyperlink ref="D88" r:id="rId174" location="BAO_0000071"/>
+    <hyperlink ref="B89" r:id="rId175" location="AFR_0002365"/>
+    <hyperlink ref="D89" r:id="rId176" location="BAO_0002769"/>
+    <hyperlink ref="B90" r:id="rId177" location="AFRL_0000539"/>
+    <hyperlink ref="D90" r:id="rId178" location="BAO_0000531"/>
+    <hyperlink ref="B91" r:id="rId179" location="AFR_0002599"/>
+    <hyperlink ref="D91" r:id="rId180"/>
+    <hyperlink ref="B92" r:id="rId181" location="AFRL_0000154"/>
+    <hyperlink ref="D92" r:id="rId182" location="BAO_0002068"/>
+    <hyperlink ref="B93" r:id="rId183" location="AFRL_0000217"/>
+    <hyperlink ref="D93" r:id="rId184"/>
+    <hyperlink ref="B94" r:id="rId185"/>
+    <hyperlink ref="D94" r:id="rId186"/>
+    <hyperlink ref="B95" r:id="rId187" location="AFRL_0000223"/>
+    <hyperlink ref="D95" r:id="rId188"/>
+    <hyperlink ref="B96" r:id="rId189" location="AFRL_0000226"/>
+    <hyperlink ref="D96" r:id="rId190"/>
+    <hyperlink ref="B97" r:id="rId191" location="AFRL_0000244"/>
+    <hyperlink ref="D97" r:id="rId192"/>
+    <hyperlink ref="B98" r:id="rId193" location="AFRL_0000405"/>
+    <hyperlink ref="D98" r:id="rId194" location="BAO_0165001"/>
+    <hyperlink ref="B99" r:id="rId195" location="AFRL_0000443"/>
+    <hyperlink ref="D99" r:id="rId196" location="BAO_0003067"/>
+    <hyperlink ref="B100" r:id="rId197" location="AFRL_0000480"/>
+    <hyperlink ref="D100" r:id="rId198"/>
+    <hyperlink ref="B101" r:id="rId199" location="AFRL_0000496"/>
+    <hyperlink ref="D101" r:id="rId200" location="BAO_0003067"/>
+    <hyperlink ref="B102" r:id="rId201"/>
+    <hyperlink ref="D102" r:id="rId202" location="BAO_0000551"/>
+    <hyperlink ref="B103" r:id="rId203"/>
+    <hyperlink ref="D103" r:id="rId204" location="BAO_0002808"/>
+    <hyperlink ref="B104" r:id="rId205"/>
+    <hyperlink ref="D104" r:id="rId206"/>
+    <hyperlink ref="B105" r:id="rId207" location="Dimension"/>
+    <hyperlink ref="D105" r:id="rId208"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>23</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>24</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>27</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>28</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" t="s">
+        <v>269</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="9">
+        <v>29</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>32</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>33</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>34</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>35</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>36</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>37</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>38</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>39</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>40</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>41</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" t="s">
+        <v>318</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9">
+        <v>43</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H46" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>46</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H48" t="s">
+        <v>338</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9">
+        <v>47</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>48</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>49</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>50</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H52" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>51</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>52</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>53</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>54</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>55</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>56</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>57</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H59" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>58</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9">
+        <v>59</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>60</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H62" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>61</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
+        <v>62</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>63</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H65" t="s">
+        <v>402</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>64</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H66" t="s">
+        <v>404</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>65</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>66</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H68" t="s">
+        <v>410</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9">
+        <v>67</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>68</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9">
+        <v>69</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="9">
+        <v>70</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>71</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H73" t="s">
+        <v>428</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>72</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H74" t="s">
+        <v>430</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J74" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F75" s="9">
+        <v>73</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F76" s="9">
+        <v>74</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>75</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H77" t="s">
+        <v>438</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F78" s="9">
+        <v>76</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F79" s="9">
+        <v>77</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F80" s="9">
+        <v>78</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F81" s="9">
+        <v>79</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>80</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H82" t="s">
+        <v>454</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>81</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H83" t="s">
+        <v>456</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="J83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F84" s="9">
+        <v>82</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>83</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H85" t="s">
+        <v>464</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J85" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F86" s="9">
+        <v>84</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>85</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H87" t="s">
+        <v>470</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F88" s="9">
+        <v>86</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>87</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H89" t="s">
+        <v>476</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>88</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H90" t="s">
+        <v>478</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F91" s="9">
+        <v>89</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>90</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H92" t="s">
+        <v>485</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J92" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>91</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H93" t="s">
+        <v>489</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J93" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>92</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H94" t="s">
+        <v>493</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J94" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>93</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H95" t="s">
+        <v>497</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>94</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H96" t="s">
+        <v>499</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J96" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <v>95</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H97" t="s">
+        <v>503</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J97" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F98" s="9">
+        <v>96</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>97</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H99" t="s">
+        <v>509</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J99" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>98</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H100" t="s">
+        <v>513</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>99</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" t="s">
+        <v>517</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J101" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F102" s="9">
+        <v>100</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F103" s="9">
+        <v>101</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F104" s="9">
+        <v>102</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F105" s="9">
+        <v>103</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L72"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33" location="Shape"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35" location="AFR_0000951"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38" location="BAO_0003116"/>
+    <hyperlink ref="G21" r:id="rId39" location="AFR_0000900"/>
+    <hyperlink ref="I21" r:id="rId40" location="BAO_0002172"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42" location="BAO_0003117"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44" location="BAO_0002928"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46" location="BAO_0002929"/>
+    <hyperlink ref="G25" r:id="rId47" location="AFE_0000129"/>
+    <hyperlink ref="I25" r:id="rId48" location="BAO_0150009"/>
+    <hyperlink ref="G26" r:id="rId49" location="AFE_0000825"/>
+    <hyperlink ref="I26" r:id="rId50" location="BAO_0150008"/>
+    <hyperlink ref="G27" r:id="rId51" location="AFP_0001404"/>
+    <hyperlink ref="I27" r:id="rId52" location="BAO_0000451"/>
+    <hyperlink ref="G28" r:id="rId53" location="AFE_0000224"/>
+    <hyperlink ref="I28" r:id="rId54" location="BAO_0002733"/>
+    <hyperlink ref="G29" r:id="rId55" location="AFE_0000718"/>
+    <hyperlink ref="I29" r:id="rId56" location="BAO_0010014"/>
+    <hyperlink ref="G30" r:id="rId57" location="AFE_0002254"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="G31" r:id="rId59" location="AFP_0000044"/>
+    <hyperlink ref="I31" r:id="rId60" location="BAO_0002526"/>
+    <hyperlink ref="G32" r:id="rId61" location="AFR_0000937"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="G33" r:id="rId63" location="AFP_0000441"/>
+    <hyperlink ref="I33" r:id="rId64" location="BAO_0002414"/>
+    <hyperlink ref="G34" r:id="rId65" location="AFE_0002248"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G35" r:id="rId67" location="AFP_0003552"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="G36" r:id="rId69"/>
+    <hyperlink ref="I36" r:id="rId70" location="BAO_0003043"/>
+    <hyperlink ref="G37" r:id="rId71" location="AFM_0000085"/>
+    <hyperlink ref="I37" r:id="rId72"/>
+    <hyperlink ref="G38" r:id="rId73" location="AFM_0000226"/>
+    <hyperlink ref="I38" r:id="rId74"/>
+    <hyperlink ref="G39" r:id="rId75" location="AFM_0000442"/>
+    <hyperlink ref="I39" r:id="rId76" location="BAO_0002104"/>
+    <hyperlink ref="G40" r:id="rId77" location="AFM_0001033"/>
+    <hyperlink ref="I40" r:id="rId78" location="BAO_0010018"/>
+    <hyperlink ref="G41" r:id="rId79" location="AFM_0001085"/>
+    <hyperlink ref="I41" r:id="rId80" location="BAO_0002934"/>
+    <hyperlink ref="G42" r:id="rId81"/>
+    <hyperlink ref="I42" r:id="rId82" location="BAO_0002934"/>
+    <hyperlink ref="G43" r:id="rId83" location="AFRL_0000269"/>
+    <hyperlink ref="I43" r:id="rId84"/>
+    <hyperlink ref="G44" r:id="rId85" location="AFP_0000634"/>
+    <hyperlink ref="I44" r:id="rId86" location="BAO_0002454"/>
+    <hyperlink ref="G45" r:id="rId87" location="AFP_0001427"/>
+    <hyperlink ref="I45" r:id="rId88" location="BAO_0000055"/>
+    <hyperlink ref="G46" r:id="rId89"/>
+    <hyperlink ref="I46" r:id="rId90"/>
+    <hyperlink ref="G47" r:id="rId91" location="AFP_0003300"/>
+    <hyperlink ref="I47" r:id="rId92" location="BAO_0002770"/>
+    <hyperlink ref="G48" r:id="rId93" location="AFRL_0000148"/>
+    <hyperlink ref="I48" r:id="rId94" location="BAO_0003064"/>
+    <hyperlink ref="G49" r:id="rId95" location="AFQ_0000184"/>
+    <hyperlink ref="I49" r:id="rId96" location="BAO_0080041"/>
+    <hyperlink ref="G50" r:id="rId97" location="AFP_0003721"/>
+    <hyperlink ref="I50" r:id="rId98" location="BAO_0040003"/>
+    <hyperlink ref="G51" r:id="rId99" location="AFP_0003770"/>
+    <hyperlink ref="I51" r:id="rId100" location="BAO_0002080"/>
+    <hyperlink ref="G52" r:id="rId101" location="AFP_0003797"/>
+    <hyperlink ref="I52" r:id="rId102" location="BAO_0002769"/>
+    <hyperlink ref="G53" r:id="rId103" location="AFQ_0000120"/>
+    <hyperlink ref="I53" r:id="rId104" location="BAO_0010018"/>
+    <hyperlink ref="G54" r:id="rId105" location="AFQ_0000005"/>
+    <hyperlink ref="I54" r:id="rId106"/>
+    <hyperlink ref="G55" r:id="rId107" location="AFQ_0000061"/>
+    <hyperlink ref="I55" r:id="rId108" location="BAO_0000070"/>
+    <hyperlink ref="G56" r:id="rId109" location="AFQ_0000209"/>
+    <hyperlink ref="I56" r:id="rId110" location="BAO_0002618"/>
+    <hyperlink ref="G57" r:id="rId111" location="AFQ_0000252"/>
+    <hyperlink ref="I57" r:id="rId112"/>
+    <hyperlink ref="G58" r:id="rId113" location="AFRE_0000012"/>
+    <hyperlink ref="I58" r:id="rId114"/>
+    <hyperlink ref="G59" r:id="rId115" location="AFRE_0000013"/>
+    <hyperlink ref="I59" r:id="rId116"/>
+    <hyperlink ref="G60" r:id="rId117" location="AFR_0000935"/>
+    <hyperlink ref="I60" r:id="rId118"/>
+    <hyperlink ref="G61" r:id="rId119" location="AFR_0000954"/>
+    <hyperlink ref="I61" r:id="rId120" location="BAO_0080019"/>
+    <hyperlink ref="G62" r:id="rId121" location="AFR_0000966"/>
+    <hyperlink ref="I62" r:id="rId122"/>
+    <hyperlink ref="G63" r:id="rId123" location="AFR_0001072"/>
+    <hyperlink ref="I63" r:id="rId124" location="BAO_0000138"/>
+    <hyperlink ref="G64" r:id="rId125" location="AFR_0001090"/>
+    <hyperlink ref="I64" r:id="rId126" location="BAO_0002121"/>
+    <hyperlink ref="G65" r:id="rId127" location="AFR_0001142"/>
+    <hyperlink ref="I65" r:id="rId128"/>
+    <hyperlink ref="G66" r:id="rId129" location="AFR_0001157"/>
+    <hyperlink ref="I66" r:id="rId130" location="BAO_0000070"/>
+    <hyperlink ref="G67" r:id="rId131" location="AFR_0001159"/>
+    <hyperlink ref="I67" r:id="rId132" location="BAO_0000565"/>
+    <hyperlink ref="G68" r:id="rId133"/>
+    <hyperlink ref="I68" r:id="rId134" location="BAO_0000565"/>
+    <hyperlink ref="G69" r:id="rId135"/>
+    <hyperlink ref="I69" r:id="rId136" location="BAO_0000558"/>
+    <hyperlink ref="G70" r:id="rId137"/>
+    <hyperlink ref="I70" r:id="rId138" location="BAO_0003119"/>
+    <hyperlink ref="G71" r:id="rId139" location="AFR_0001508"/>
+    <hyperlink ref="I71" r:id="rId140" location="BAO_0002335"/>
+    <hyperlink ref="G72" r:id="rId141" location="AFR_0002537"/>
+    <hyperlink ref="I72" r:id="rId142"/>
+    <hyperlink ref="G73" r:id="rId143" location="AFR_0001589"/>
+    <hyperlink ref="I73" r:id="rId144"/>
+    <hyperlink ref="G74" r:id="rId145" location="AFR_0001590"/>
+    <hyperlink ref="I74" r:id="rId146"/>
+    <hyperlink ref="G75" r:id="rId147" location="AFR_0001817"/>
+    <hyperlink ref="I75" r:id="rId148"/>
+    <hyperlink ref="G76" r:id="rId149" location="AFR_0001843"/>
+    <hyperlink ref="I76" r:id="rId150"/>
+    <hyperlink ref="G77" r:id="rId151" location="AFRL_0000157"/>
+    <hyperlink ref="I77" r:id="rId152" location="BAO_0002070"/>
+    <hyperlink ref="G78" r:id="rId153" location="AFR_0001980"/>
+    <hyperlink ref="I78" r:id="rId154" location="BAO_0000525"/>
+    <hyperlink ref="G79" r:id="rId155" location="AFR_0002056"/>
+    <hyperlink ref="I79" r:id="rId156" location="BAO_0002770"/>
+    <hyperlink ref="G80" r:id="rId157" location="AFR_0002076"/>
+    <hyperlink ref="I80" r:id="rId158"/>
+    <hyperlink ref="G81" r:id="rId159" location="AFR_0002107"/>
+    <hyperlink ref="I81" r:id="rId160"/>
+    <hyperlink ref="G82" r:id="rId161" location="AFR_0002371"/>
+    <hyperlink ref="I82" r:id="rId162" location="BAO_0002618"/>
+    <hyperlink ref="G83" r:id="rId163" location="AFR_0002208"/>
+    <hyperlink ref="I83" r:id="rId164" location="BAO_0002173"/>
+    <hyperlink ref="G84" r:id="rId165" location="AFR_0002192"/>
+    <hyperlink ref="I84" r:id="rId166" location="BAO_0002176"/>
+    <hyperlink ref="G85" r:id="rId167" location="AFRL_0000527"/>
+    <hyperlink ref="I85" r:id="rId168" location="BAO_0002176"/>
+    <hyperlink ref="G86" r:id="rId169" location="AFR_0002209"/>
+    <hyperlink ref="I86" r:id="rId170" location="BAO_0002174"/>
+    <hyperlink ref="G87" r:id="rId171" location="AFRL_0000321"/>
+    <hyperlink ref="I87" r:id="rId172" location="BAO_0002174"/>
+    <hyperlink ref="G88" r:id="rId173" location="AFR_0002261"/>
+    <hyperlink ref="I88" r:id="rId174" location="BAO_0000071"/>
+    <hyperlink ref="G89" r:id="rId175" location="AFR_0002365"/>
+    <hyperlink ref="I89" r:id="rId176" location="BAO_0002769"/>
+    <hyperlink ref="G90" r:id="rId177" location="AFRL_0000539"/>
+    <hyperlink ref="I90" r:id="rId178" location="BAO_0000531"/>
+    <hyperlink ref="G91" r:id="rId179" location="AFR_0002599"/>
+    <hyperlink ref="I91" r:id="rId180"/>
+    <hyperlink ref="G92" r:id="rId181" location="AFRL_0000154"/>
+    <hyperlink ref="I92" r:id="rId182" location="BAO_0002068"/>
+    <hyperlink ref="G93" r:id="rId183" location="AFRL_0000217"/>
+    <hyperlink ref="I93" r:id="rId184"/>
+    <hyperlink ref="G94" r:id="rId185"/>
+    <hyperlink ref="I94" r:id="rId186"/>
+    <hyperlink ref="G95" r:id="rId187" location="AFRL_0000223"/>
+    <hyperlink ref="I95" r:id="rId188"/>
+    <hyperlink ref="G96" r:id="rId189" location="AFRL_0000226"/>
+    <hyperlink ref="I96" r:id="rId190"/>
+    <hyperlink ref="G97" r:id="rId191" location="AFRL_0000244"/>
+    <hyperlink ref="I97" r:id="rId192"/>
+    <hyperlink ref="G98" r:id="rId193" location="AFRL_0000405"/>
+    <hyperlink ref="I98" r:id="rId194" location="BAO_0165001"/>
+    <hyperlink ref="G99" r:id="rId195" location="AFRL_0000443"/>
+    <hyperlink ref="I99" r:id="rId196" location="BAO_0003067"/>
+    <hyperlink ref="G100" r:id="rId197" location="AFRL_0000480"/>
+    <hyperlink ref="I100" r:id="rId198"/>
+    <hyperlink ref="G101" r:id="rId199" location="AFRL_0000496"/>
+    <hyperlink ref="I101" r:id="rId200" location="BAO_0003067"/>
+    <hyperlink ref="G102" r:id="rId201"/>
+    <hyperlink ref="I102" r:id="rId202" location="BAO_0000551"/>
+    <hyperlink ref="G103" r:id="rId203"/>
+    <hyperlink ref="I103" r:id="rId204" location="BAO_0002808"/>
+    <hyperlink ref="G104" r:id="rId205"/>
+    <hyperlink ref="I104" r:id="rId206"/>
+    <hyperlink ref="G105" r:id="rId207" location="Dimension"/>
+    <hyperlink ref="I105" r:id="rId208"/>
+    <hyperlink ref="A7" r:id="rId209" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="B7" r:id="rId210" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="A8" r:id="rId211" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
+    <hyperlink ref="B8" r:id="rId212" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCBITaxon_9606&amp;p=classes"/>
+    <hyperlink ref="A62" r:id="rId213" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002192&amp;p=classes"/>
+    <hyperlink ref="B62" r:id="rId214" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002176&amp;p=classes"/>
+    <hyperlink ref="A27" r:id="rId215" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001033&amp;p=classes"/>
+    <hyperlink ref="B27" r:id="rId216" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010018&amp;p=classes"/>
+    <hyperlink ref="A32" r:id="rId217" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000900&amp;p=classes"/>
+    <hyperlink ref="B32" r:id="rId218" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002172&amp;p=classes"/>
+    <hyperlink ref="A2" r:id="rId219" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001708&amp;p=classes"/>
+    <hyperlink ref="B2" r:id="rId220" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001708&amp;p=classes"/>
+    <hyperlink ref="A69" r:id="rId221" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001843&amp;p=classes"/>
+    <hyperlink ref="B69" r:id="rId222" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="A43" r:id="rId223" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001404&amp;p=classes"/>
+    <hyperlink ref="B43" r:id="rId224" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000451&amp;p=classes"/>
+    <hyperlink ref="A53" r:id="rId225" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000954&amp;p=classes"/>
+    <hyperlink ref="B53" r:id="rId226" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080019&amp;p=classes"/>
+    <hyperlink ref="A72" r:id="rId227" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002599&amp;p=classes"/>
+    <hyperlink ref="B72" r:id="rId228" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="A28" r:id="rId229" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002537&amp;p=classes"/>
+    <hyperlink ref="B28" r:id="rId230" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000049&amp;p=classes"/>
+    <hyperlink ref="A61" r:id="rId231" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000010&amp;p=classes"/>
+    <hyperlink ref="B61" r:id="rId232" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003119&amp;p=classes"/>
+    <hyperlink ref="A3" r:id="rId233" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001709&amp;p=classes"/>
+    <hyperlink ref="B3" r:id="rId234" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001709&amp;p=classes"/>
+    <hyperlink ref="A35" r:id="rId235" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000040&amp;p=classes"/>
+    <hyperlink ref="B35" r:id="rId236" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003116&amp;p=classes"/>
+    <hyperlink ref="A48" r:id="rId237" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000970&amp;p=classes"/>
+    <hyperlink ref="B48" r:id="rId238" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002808&amp;p=classes"/>
+    <hyperlink ref="A20" r:id="rId239" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001980&amp;p=classes"/>
+    <hyperlink ref="B20" r:id="rId240" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000525&amp;p=classes"/>
+    <hyperlink ref="A37" r:id="rId241" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000825&amp;p=classes"/>
+    <hyperlink ref="B37" r:id="rId242" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150008&amp;p=classes"/>
+    <hyperlink ref="A38" r:id="rId243" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000044&amp;p=classes"/>
+    <hyperlink ref="B38" r:id="rId244" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002526&amp;p=classes"/>
+    <hyperlink ref="A26" r:id="rId245" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000034&amp;p=classes"/>
+    <hyperlink ref="B26" r:id="rId246" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003117&amp;p=classes"/>
+    <hyperlink ref="A25" r:id="rId247" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000085&amp;p=classes"/>
+    <hyperlink ref="B25" r:id="rId248" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_37958&amp;p=classes"/>
+    <hyperlink ref="A33" r:id="rId249" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0000571&amp;p=classes"/>
+    <hyperlink ref="B33" r:id="rId250" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000558&amp;p=classes"/>
+    <hyperlink ref="A42" r:id="rId251" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000129&amp;p=classes"/>
+    <hyperlink ref="B42" r:id="rId252" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0150009&amp;p=classes"/>
+    <hyperlink ref="A66" r:id="rId253" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000937&amp;p=classes"/>
+    <hyperlink ref="B66" r:id="rId254" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000165&amp;p=classes"/>
+    <hyperlink ref="A55" r:id="rId255" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frole%23AFRL_0000405&amp;p=classes"/>
+    <hyperlink ref="B55" r:id="rId256" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0165001&amp;p=classes"/>
+    <hyperlink ref="A46" r:id="rId257" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fxmlns.com%2Ffoaf%2F0.1%2FOrganization&amp;p=classes"/>
+    <hyperlink ref="B46" r:id="rId258" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
+    <hyperlink ref="A31" r:id="rId259" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000225&amp;p=classes"/>
+    <hyperlink ref="B31" r:id="rId260" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FERO_0001500&amp;p=classes"/>
+    <hyperlink ref="A12" r:id="rId261" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
+    <hyperlink ref="B12" r:id="rId262" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001300&amp;p=classes"/>
+    <hyperlink ref="A57" r:id="rId263" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fwww.w3.org%2Fns%2Fshacl%23Shape&amp;p=classes"/>
+    <hyperlink ref="B57" r:id="rId264" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="A14" r:id="rId265" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="B14" r:id="rId266" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="A11" r:id="rId267" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
+    <hyperlink ref="B11" r:id="rId268" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000051&amp;p=classes"/>
+    <hyperlink ref="A68" r:id="rId269" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0000718&amp;p=classes"/>
+    <hyperlink ref="B68" r:id="rId270" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0010014&amp;p=classes"/>
+    <hyperlink ref="A13" r:id="rId271" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="B13" r:id="rId272" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000052&amp;p=classes"/>
+    <hyperlink ref="A5" r:id="rId273" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="B5" r:id="rId274" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="A56" r:id="rId275" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000023&amp;p=classes"/>
+    <hyperlink ref="B56" r:id="rId276" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002929&amp;p=classes"/>
+    <hyperlink ref="A30" r:id="rId277" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001817&amp;p=classes"/>
+    <hyperlink ref="B30" r:id="rId278" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="A4" r:id="rId279" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001710&amp;p=classes"/>
+    <hyperlink ref="B4" r:id="rId280" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001710&amp;p=classes"/>
+    <hyperlink ref="A36" r:id="rId281" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002209&amp;p=classes"/>
+    <hyperlink ref="B36" r:id="rId282" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002174&amp;p=classes"/>
+    <hyperlink ref="A47" r:id="rId283" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0001085&amp;p=classes"/>
+    <hyperlink ref="B47" r:id="rId284" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002934&amp;p=classes"/>
+    <hyperlink ref="A71" r:id="rId285" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001159&amp;p=classes"/>
+    <hyperlink ref="B71" r:id="rId286" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000565&amp;p=classes"/>
+    <hyperlink ref="A34" r:id="rId287" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0001427&amp;p=classes"/>
+    <hyperlink ref="B34" r:id="rId288" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000055&amp;p=classes"/>
+    <hyperlink ref="A19" r:id="rId289" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002076&amp;p=classes"/>
+    <hyperlink ref="B19" r:id="rId290" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001323&amp;p=classes"/>
+    <hyperlink ref="A54" r:id="rId291" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000005&amp;p=classes"/>
+    <hyperlink ref="B54" r:id="rId292" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0190001&amp;p=classes"/>
+    <hyperlink ref="A67" r:id="rId293" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002261&amp;p=classes"/>
+    <hyperlink ref="B67" r:id="rId294" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000071&amp;p=classes"/>
+    <hyperlink ref="A60" r:id="rId295" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001090&amp;p=classes"/>
+    <hyperlink ref="B60" r:id="rId296" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002121&amp;p=classes"/>
+    <hyperlink ref="A29" r:id="rId297" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000441&amp;p=classes"/>
+    <hyperlink ref="B29" r:id="rId298" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002414&amp;p=classes"/>
+    <hyperlink ref="A10" r:id="rId299" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="B10" r:id="rId300" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="A39" r:id="rId301" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_23367&amp;p=classes"/>
+    <hyperlink ref="B39" r:id="rId302" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0003043&amp;p=classes"/>
+    <hyperlink ref="A65" r:id="rId303" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002056&amp;p=classes"/>
+    <hyperlink ref="B65" r:id="rId304" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002770&amp;p=classes"/>
+    <hyperlink ref="A17" r:id="rId305" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="B17" r:id="rId306" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000921&amp;p=classes"/>
+    <hyperlink ref="A22" r:id="rId307" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fquality%23AFQ_0000184&amp;p=classes"/>
+    <hyperlink ref="B22" r:id="rId308" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0080041&amp;p=classes"/>
+    <hyperlink ref="A15" r:id="rId309" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
+    <hyperlink ref="B15" r:id="rId310" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000141&amp;p=classes"/>
+    <hyperlink ref="A49" r:id="rId311" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003770&amp;p=classes"/>
+    <hyperlink ref="B49" r:id="rId312" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002080&amp;p=classes"/>
+    <hyperlink ref="A70" r:id="rId313" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0000634&amp;p=classes"/>
+    <hyperlink ref="B70" r:id="rId314" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002454&amp;p=classes"/>
+    <hyperlink ref="A18" r:id="rId315" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0002070&amp;p=classes"/>
+    <hyperlink ref="B18" r:id="rId316" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C20604&amp;p=classes"/>
+    <hyperlink ref="A51" r:id="rId317" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002371&amp;p=classes"/>
+    <hyperlink ref="B51" r:id="rId318" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002618&amp;p=classes"/>
+    <hyperlink ref="A40" r:id="rId319" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001072&amp;p=classes"/>
+    <hyperlink ref="B40" r:id="rId320" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000138&amp;p=classes"/>
+    <hyperlink ref="A9" r:id="rId321" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="B9" r:id="rId322" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000122&amp;p=classes"/>
+    <hyperlink ref="A64" r:id="rId323" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000442&amp;p=classes"/>
+    <hyperlink ref="B64" r:id="rId324" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002104&amp;p=classes"/>
+    <hyperlink ref="A58" r:id="rId325" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003552&amp;p=classes"/>
+    <hyperlink ref="B58" r:id="rId326" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0023052&amp;p=classes"/>
+    <hyperlink ref="A63" r:id="rId327" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0001508&amp;p=classes"/>
+    <hyperlink ref="B63" r:id="rId328" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002335&amp;p=classes"/>
+    <hyperlink ref="A52" r:id="rId329" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000019&amp;p=classes"/>
+    <hyperlink ref="B52" r:id="rId330" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0002928&amp;p=classes"/>
+    <hyperlink ref="A50" r:id="rId331" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fequipment%23AFE_0002248&amp;p=classes"/>
+    <hyperlink ref="B50" r:id="rId332" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_50406&amp;p=classes"/>
+    <hyperlink ref="A21" r:id="rId333" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003721&amp;p=classes"/>
+    <hyperlink ref="B21" r:id="rId334" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0040003&amp;p=classes"/>
+    <hyperlink ref="A16" r:id="rId335" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="B16" r:id="rId336" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000918&amp;p=classes"/>
+    <hyperlink ref="A41" r:id="rId337" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fmaterial%23AFM_0000226&amp;p=classes"/>
+    <hyperlink ref="B41" r:id="rId338" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FGO_0005634&amp;p=classes"/>
+    <hyperlink ref="A45" r:id="rId339" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001995&amp;p=classes"/>
+    <hyperlink ref="B45" r:id="rId340" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0120002&amp;p=classes"/>
+    <hyperlink ref="A59" r:id="rId341" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0000936&amp;p=classes"/>
+    <hyperlink ref="B59" r:id="rId342" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000117&amp;p=classes"/>
+    <hyperlink ref="A24" r:id="rId343" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fresult%23AFR_0002107&amp;p=classes"/>
+    <hyperlink ref="B24" r:id="rId344" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001334&amp;p=classes"/>
+    <hyperlink ref="A6" r:id="rId345" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
+    <hyperlink ref="B6" r:id="rId346" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0000014&amp;p=classes"/>
+    <hyperlink ref="A44" r:id="rId347" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0100026&amp;p=classes"/>
+    <hyperlink ref="B44" r:id="rId348" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fwww.bioassayontology.org%2Fbao%23BAO_0000551&amp;p=classes"/>
+    <hyperlink ref="A23" r:id="rId349" display="https://bioportal.bioontology.org/ontologies/AFO?conceptid=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Frealizable%23AFRE_0000012&amp;p=classes"/>
+    <hyperlink ref="B23" r:id="rId350" display="https://bioportal.bioontology.org/ontologies/BAO?conceptid=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_27780&amp;p=classes"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>